--- a/Note.xlsx
+++ b/Note.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="SQL" sheetId="2" r:id="rId2"/>
+    <sheet name="Process" sheetId="3" r:id="rId2"/>
+    <sheet name="TaskList" sheetId="4" r:id="rId3"/>
+    <sheet name="SQL" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="86">
   <si>
     <t>UserInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +220,149 @@
   </si>
   <si>
     <t>icon_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE UserInfo(
+CREATE TABLE UserInfo(idx INT(32) unsigned NOT NULL, user_id VARCHAR(256) NOT NULL, id_hash CHAR(32), pwd_hash CHAR(64), last_login TIMESTAMP DEFAULT CURRENT_TIMESTAMP, credits INT(32) unsigned NOT NULL, icon_file_path VARCHAR(256) NOT NULL);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE QuestionInfo(
+idx INT(32) NOT NULL,
+question VARCHAR(512),
+voice_path VARCHAR(256),
+time INT(32),
+lang VARCHAR(16) DEFAULT 'ko',
+category_idx INT(32));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VideoProcessor.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴더명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mVideoProcessor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preProcess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 작업 총괄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오디오, 비디오 분할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breakdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비디오 프레임별 사진 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진의 Emotion 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudioProcessor.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mAudioProcessor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speechToText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음성을 텍스트로 번역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음성 감정 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analyzeText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analyzePitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analyzeSpeech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 속도, 단어 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단어 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비디오 처리 모듈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오디오 처리 모듈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -231,34 +376,11 @@
 question_idx INT(32) NOT NULL);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>CREATE TABLE UserInfo(
-CREATE TABLE UserInfo(idx INT(32) unsigned NOT NULL, user_id VARCHAR(256) NOT NULL, id_hash CHAR(32), pwd_hash CHAR(64), last_login TIMESTAMP DEFAULT CURRENT_TIMESTAMP, credits INT(32) unsigned NOT NULL, icon_file_path VARCHAR(256) NOT NULL);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE QuestionInfo(
-idx INT(32) NOT NULL,
-question VARCHAR(512),
-voice_path VARCHAR(256),
-time INT(32),
-lang VARCHAR(16) DEFAULT 'ko',
-category_idx INT(32));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,9 +478,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -377,6 +496,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,45 +807,45 @@
   <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="8"/>
-    <col min="2" max="2" width="15.296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="7"/>
+    <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.59765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.19921875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.796875" style="1"/>
-    <col min="11" max="11" width="30.296875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" style="8"/>
+    <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="1"/>
+    <col min="11" max="11" width="30.25" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -747,13 +869,13 @@
       <c r="I3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="12"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11"/>
       <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
@@ -776,40 +898,40 @@
         <v>20</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="2:11" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="5" t="s">
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="2:11" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="H5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="5"/>
+      <c r="K5" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12"/>
       <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
@@ -834,36 +956,36 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="2:11" s="6" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="2:11" s="5" customFormat="1" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="5"/>
+      <c r="K7" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
@@ -886,34 +1008,34 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="6"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="5"/>
+    <row r="10" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12"/>
       <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
@@ -936,28 +1058,28 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="5"/>
+    <row r="12" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
@@ -976,12 +1098,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -991,23 +1113,230 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="19.875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>47</v>
       </c>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -13,11 +13,12 @@
     <sheet name="SQL" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="117">
   <si>
     <t>UserInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,10 +28,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VideoInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QuestionInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>file_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Field</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,102 +68,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResultInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CategoryInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voice_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>lang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stringn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResultInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>owner_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_processed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CategoryInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parent_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voice_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>emotion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,10 +157,6 @@
   </si>
   <si>
     <t>video_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>question_idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -239,10 +200,6 @@
 time INT(32),
 lang VARCHAR(16) DEFAULT 'ko',
 category_idx INT(32));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -376,11 +333,186 @@
 question_idx INT(32) NOT NULL);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>TaskQueue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>folder_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(256)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>video_hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>video_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned int(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>video_format</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>video_duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>video_frame_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_format</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_sample_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned int(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isProcessed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isProcessed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userdata_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proc_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table TaskQueue (
+ idx INT(32) unsigned auto_increment primary key,
+ owner_idx INT(32) unsigned,
+ userdata_idx INT(32) unsigned,
+ isProcessed bool,
+ isError bool,
+ reg_date TIMESTAMP,
+ proc_date TIMESTAMP);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(256)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,7 +543,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -460,11 +592,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -491,14 +634,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,306 +974,466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="7"/>
-    <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.75" style="1"/>
-    <col min="11" max="11" width="30.25" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.75" style="7"/>
+    <col min="1" max="1" width="3.296875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.09765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="1"/>
+    <col min="12" max="12" width="30.19921875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.69921875" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="21"/>
       <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="2:11" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
-        <v>2</v>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="2:12" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="17"/>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="2:11" s="5" customFormat="1" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
-        <v>3</v>
-      </c>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="2:12" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="17"/>
       <c r="C7" s="6" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="18"/>
+      <c r="C8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="13"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="6"/>
       <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
       <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
-        <v>26</v>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:12" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="19" t="s">
+        <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="I11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="19"/>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="I12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="F13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="19"/>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="19"/>
+      <c r="C16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B18" s="15"/>
+      <c r="C18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1115,124 +1445,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="19.875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.19921875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="1" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E11" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E6" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1250,66 +1580,66 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="2" max="2" width="28.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
     </row>
   </sheetData>
@@ -1326,19 +1656,19 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="8.75" style="1"/>
+    <col min="1" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,11 @@
     <sheet name="SQL" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="121">
   <si>
     <t>UserInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>owner_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Field</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>owner_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CategoryInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,27 +127,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>emotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>keyword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>question_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>video_idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -508,11 +483,51 @@
     <t>char(64)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>emotion_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stt_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userdata_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -607,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -650,6 +665,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -659,9 +680,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -976,55 +994,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.296875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.8984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.25" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.09765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.69921875" style="1"/>
-    <col min="12" max="12" width="30.19921875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.69921875" style="7"/>
+    <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="1"/>
+    <col min="12" max="12" width="30.25" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="C2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>3</v>
@@ -1039,164 +1057,166 @@
         <v>6</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="21"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
       <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="3"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="2:12" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="16" t="s">
-        <v>77</v>
+    <row r="5" spans="2:12" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="17"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="19"/>
       <c r="C6" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="2:12" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="17"/>
+    <row r="7" spans="2:12" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="19"/>
       <c r="C7" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="18"/>
+    <row r="8" spans="2:12" s="5" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="20"/>
       <c r="C8" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>99</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -1207,9 +1227,11 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -1220,124 +1242,124 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:12" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="19" t="s">
+    <row r="11" spans="2:12" s="5" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="3"/>
       <c r="L11" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="19"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16"/>
       <c r="C12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="19" t="s">
+    <row r="13" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="6"/>
+        <v>111</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="19"/>
+    <row r="14" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="16"/>
       <c r="C14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="19" t="s">
-        <v>18</v>
+    <row r="15" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1347,16 +1369,16 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="19"/>
+    <row r="16" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="16"/>
       <c r="C16" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -1366,63 +1388,63 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="15" t="s">
-        <v>75</v>
+    <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H17" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>108</v>
-      </c>
       <c r="L17" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B18" s="15"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="17"/>
       <c r="C18" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1445,124 +1467,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="19.8984375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.25" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="E4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="E5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="1" t="s">
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="E6" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="1" t="s">
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="E8" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="E9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="E10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="E11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1580,66 +1602,66 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.09765625" customWidth="1"/>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
     </row>
   </sheetData>
@@ -1656,19 +1678,19 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Process" sheetId="3" r:id="rId2"/>
-    <sheet name="TaskList" sheetId="4" r:id="rId3"/>
-    <sheet name="SQL" sheetId="2" r:id="rId4"/>
+    <sheet name="Scheme" sheetId="1" r:id="rId1"/>
+    <sheet name="Push" sheetId="5" r:id="rId2"/>
+    <sheet name="Process" sheetId="3" r:id="rId3"/>
+    <sheet name="TaskList" sheetId="4" r:id="rId4"/>
+    <sheet name="SQL" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="135">
   <si>
     <t>UserInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,15 +64,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -283,10 +276,6 @@
   </si>
   <si>
     <t>단어 분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모듈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -523,11 +512,79 @@
     <t>int(32)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>비디오 촬영 및 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 전처리 모듈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned int(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(128)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_login_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터뷰 분석 완료 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -622,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -671,6 +728,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -686,6 +746,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -992,57 +1055,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L18"/>
+  <dimension ref="B2:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="1"/>
-    <col min="12" max="12" width="30.25" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.75" style="7"/>
+    <col min="5" max="5" width="14.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.09765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="1"/>
+    <col min="12" max="12" width="30.19921875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.69921875" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>3</v>
@@ -1057,405 +1120,439 @@
         <v>6</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="K3" s="7"/>
       <c r="L3" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="24"/>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="H4" s="10" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="2:12" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="2:12" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="24"/>
+      <c r="C5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="2:12" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="23"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="2:12" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="J7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="20"/>
+      <c r="C8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J8" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19"/>
-      <c r="C6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="2:12" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19"/>
-      <c r="C7" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="2:12" s="5" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
-      <c r="C8" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
+    <row r="9" spans="2:12" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="20"/>
       <c r="C9" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
+    <row r="10" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="21"/>
       <c r="C10" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:12" s="5" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
-        <v>2</v>
-      </c>
+    <row r="11" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="13"/>
       <c r="C11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="14"/>
+      <c r="C12" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="4"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
-        <v>14</v>
+    <row r="13" spans="2:12" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="I13" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>115</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="J13" s="6"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
+      <c r="L13" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="17"/>
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="J14" s="4"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
-        <v>16</v>
+    <row r="15" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
-      <c r="C16" s="10" t="s">
+    <row r="16" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="17"/>
+      <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="E16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="17"/>
+      <c r="C18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="12" t="s">
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="18"/>
+      <c r="C20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="I20" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
-      <c r="C18" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C2:J2"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B3:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1465,126 +1562,213 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="43.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="19.875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.19921875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E4" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E8" s="1" t="s">
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E9" s="1" t="s">
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1594,83 +1778,103 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B18"/>
+  <dimension ref="B2:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="1" max="1" width="4.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" style="1"/>
+    <col min="3" max="3" width="40.69921875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B3"/>
   <sheetViews>
@@ -1678,19 +1882,19 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="8.75" style="1"/>
+    <col min="1" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Scheme" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="TaskList" sheetId="4" r:id="rId4"/>
     <sheet name="SQL" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="149">
   <si>
     <t>UserInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -580,12 +580,68 @@
     <t>인터뷰 분석 완료 알림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오 로그인 처리 기능 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오 로그인 처리 기능 (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오 로그인 인증 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸시 모듈 합체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워킹 소켓 모듈화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,6 +654,13 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -615,7 +678,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -675,11 +738,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -745,11 +817,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1061,24 +1136,24 @@
       <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.8984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.25" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.09765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.69921875" style="1"/>
-    <col min="12" max="12" width="30.19921875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.69921875" style="7"/>
+    <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="1"/>
+    <col min="12" max="12" width="30.25" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1097,7 +1172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
@@ -1130,8 +1205,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:12" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="24"/>
+    <row r="4" spans="2:12" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="23"/>
       <c r="C4" s="4" t="s">
         <v>73</v>
       </c>
@@ -1159,8 +1234,8 @@
       <c r="K4" s="3"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="2:12" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="24"/>
+    <row r="5" spans="2:12" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="23"/>
       <c r="C5" s="6" t="s">
         <v>129</v>
       </c>
@@ -1176,8 +1251,8 @@
       <c r="K5" s="3"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="2:12" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="23"/>
+    <row r="6" spans="2:12" s="5" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="24"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -1189,7 +1264,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="2:12" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:12" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="19" t="s">
         <v>68</v>
       </c>
@@ -1222,7 +1297,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20"/>
       <c r="C8" s="4" t="s">
         <v>84</v>
@@ -1251,7 +1326,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:12" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:12" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="6" t="s">
         <v>78</v>
@@ -1280,7 +1355,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:12" s="5" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="21"/>
       <c r="C10" s="10" t="s">
         <v>79</v>
@@ -1309,7 +1384,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13"/>
       <c r="C11" s="6" t="s">
         <v>115</v>
@@ -1324,7 +1399,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
       <c r="C12" s="10" t="s">
         <v>117</v>
@@ -1339,7 +1414,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="2:12" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:12" s="5" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>2</v>
       </c>
@@ -1368,7 +1443,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17"/>
       <c r="C14" s="4" t="s">
         <v>10</v>
@@ -1393,7 +1468,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
         <v>12</v>
       </c>
@@ -1420,7 +1495,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="17"/>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -1445,7 +1520,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
         <v>14</v>
       </c>
@@ -1466,7 +1541,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
       <c r="C18" s="10" t="s">
         <v>10</v>
@@ -1485,7 +1560,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="18" t="s">
         <v>66</v>
       </c>
@@ -1517,7 +1592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="18"/>
       <c r="C20" s="11" t="s">
         <v>67</v>
@@ -1564,16 +1639,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="43.8984375" customWidth="1"/>
+    <col min="3" max="3" width="43.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>131</v>
       </c>
@@ -1581,7 +1656,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="11">
         <v>0</v>
       </c>
@@ -1589,7 +1664,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="11">
         <v>1</v>
       </c>
@@ -1597,47 +1672,47 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
     </row>
@@ -1655,16 +1730,16 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="19.8984375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.25" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
@@ -1681,7 +1756,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
@@ -1698,7 +1773,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
@@ -1706,7 +1781,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E5" s="1" t="s">
         <v>48</v>
       </c>
@@ -1714,7 +1789,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>50</v>
       </c>
@@ -1722,7 +1797,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>52</v>
       </c>
@@ -1739,7 +1814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>55</v>
       </c>
@@ -1747,7 +1822,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>58</v>
       </c>
@@ -1755,7 +1830,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>59</v>
       </c>
@@ -1763,7 +1838,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
         <v>60</v>
       </c>
@@ -1780,94 +1855,181 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" style="1"/>
-    <col min="3" max="3" width="40.69921875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1"/>
+    <col min="3" max="3" width="40.75" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.75" style="1"/>
+    <col min="7" max="7" width="44" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:8" ht="31.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="F2" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="11" t="s">
+      <c r="F3" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B4" s="11" t="s">
+      <c r="D4" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D5" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D7" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="11">
+        <v>12.26</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
@@ -1882,17 +2044,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>29</v>
       </c>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Scheme" sheetId="1" r:id="rId1"/>
-    <sheet name="Push" sheetId="5" r:id="rId2"/>
-    <sheet name="Process" sheetId="3" r:id="rId3"/>
-    <sheet name="TaskList" sheetId="4" r:id="rId4"/>
-    <sheet name="SQL" sheetId="2" r:id="rId5"/>
+    <sheet name="ServerDB" sheetId="1" r:id="rId1"/>
+    <sheet name="LocalDB" sheetId="6" r:id="rId2"/>
+    <sheet name="Push" sheetId="5" r:id="rId3"/>
+    <sheet name="Process" sheetId="3" r:id="rId4"/>
+    <sheet name="TaskList" sheetId="4" r:id="rId5"/>
+    <sheet name="SQL" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="153">
   <si>
     <t>UserInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,30 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id_hash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwd_hash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>credit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Field</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Classs Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ResultInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,14 +115,6 @@
   </si>
   <si>
     <t>version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -457,11 +423,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>file_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(256)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>char(64)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>file_name</t>
+    <t>emotion_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stt_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userdata_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비디오 촬영 및 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 전처리 모듈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터뷰 분석 완료 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오 로그인 처리 기능 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오 로그인 처리 기능 (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오 로그인 인증 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸시 모듈 합체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워킹 소켓 모듈화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_numtry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_upvote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -469,31 +619,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>user_nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kakao_token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>char(64)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>emotion_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stt_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userdata_idx</t>
+    <t>parent_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -501,147 +647,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>question_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(32)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비디오 촬영 및 전송</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모듈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 전처리 모듈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsigned int(32)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(128)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Session</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_login_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 알림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인터뷰 분석 완료 알림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카카오 로그인 처리 기능 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카카오 로그인 처리 기능 (2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카카오 로그인 인증 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대기 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸시 모듈 합체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네트워킹 소켓 모듈화</t>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isLeafNode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,8 +681,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,6 +701,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -797,6 +830,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1132,117 +1171,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="1"/>
-    <col min="12" max="12" width="30.25" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.75" style="7"/>
+    <col min="5" max="5" width="14.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.09765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="1"/>
+    <col min="12" max="12" width="30.19921875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.69921875" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+    <row r="2" spans="2:12" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B2" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23"/>
-      <c r="C4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>128</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="25"/>
+      <c r="C4" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="2:12" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
+    <row r="5" spans="2:12" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="25"/>
       <c r="C5" s="6" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="16"/>
+        <v>145</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>146</v>
+      </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
@@ -1251,11 +1292,15 @@
       <c r="K5" s="3"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="2:12" s="5" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
-      <c r="C6" s="16"/>
+    <row r="6" spans="2:12" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="26"/>
+      <c r="C6" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="E6" s="16" t="s">
+        <v>147</v>
+      </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -1264,130 +1309,130 @@
       <c r="K6" s="3"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="2:12" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
-        <v>68</v>
+    <row r="7" spans="2:12" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="21" t="s">
+        <v>59</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="22"/>
       <c r="C8" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:12" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
+    <row r="9" spans="2:12" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="22"/>
       <c r="C9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="2:12" s="5" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
+    <row r="10" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="23"/>
       <c r="C10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>88</v>
-      </c>
       <c r="J10" s="10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B11" s="13"/>
       <c r="C11" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -1399,10 +1444,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B12" s="14"/>
       <c r="C12" s="10" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -1414,126 +1459,128 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="2:12" s="5" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
+    <row r="13" spans="2:12" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="3"/>
       <c r="L13" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="19"/>
       <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>12</v>
+    <row r="15" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="19" t="s">
+        <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="17"/>
+    <row r="16" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="19"/>
       <c r="C16" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="4"/>
       <c r="I16" s="15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
-        <v>14</v>
+    <row r="17" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="19" t="s">
+        <v>7</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="6"/>
+        <v>149</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1541,18 +1588,20 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
+    <row r="18" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="19"/>
       <c r="C18" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -1560,63 +1609,63 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="18" t="s">
-        <v>66</v>
+    <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="18"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="20"/>
       <c r="C20" s="11" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1637,86 +1686,450 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C15"/>
+  <dimension ref="B2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="43.875" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="10" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="11" t="s">
+    <row r="2" spans="2:10" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B2" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="11">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="11">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D3" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="E3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="25"/>
+      <c r="C4" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="25"/>
+      <c r="C5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="26"/>
+      <c r="C6" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="22"/>
+      <c r="C8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="22"/>
+      <c r="C9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="23"/>
+      <c r="C10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="13"/>
+      <c r="C11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="14"/>
+      <c r="C12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="19"/>
+      <c r="C14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="19"/>
+      <c r="C16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="19"/>
+      <c r="C18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="20"/>
+      <c r="C20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1724,126 +2137,213 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="43.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="19.875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.19921875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E8" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E5" s="1" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="1" t="s">
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E11" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1853,130 +2353,130 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1"/>
-    <col min="3" max="3" width="40.75" style="1" customWidth="1"/>
-    <col min="4" max="6" width="8.75" style="1"/>
+    <col min="1" max="1" width="4.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" style="1"/>
+    <col min="3" max="3" width="40.69921875" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.69921875" style="1"/>
     <col min="7" max="7" width="44" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="1"/>
+    <col min="8" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="31.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="F2" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="30" x14ac:dyDescent="0.65">
+      <c r="B2" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="F2" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="12" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="F4" s="11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="11" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D8" s="11">
         <v>12.26</v>
@@ -1985,7 +2485,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1993,7 +2493,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -2001,7 +2501,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -2009,7 +2509,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -2017,7 +2517,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -2036,7 +2536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B3"/>
   <sheetViews>
@@ -2044,19 +2544,19 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="8.75" style="1"/>
+    <col min="1" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ServerDB" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,11 @@
     <sheet name="SQL" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="187">
   <si>
     <t>UserInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,14 +50,6 @@
   </si>
   <si>
     <t>CategoryInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parent_idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -654,12 +645,156 @@
     <t>isLeafNode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>video_frame_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(128)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(256)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(256)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2048)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_chart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InterviewData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_probset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_subcategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_problem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probset_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Problems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,8 +825,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -707,6 +851,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,7 +934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -835,6 +985,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -864,6 +1017,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1171,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1194,95 +1359,95 @@
   <sheetData>
     <row r="2" spans="2:12" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+        <v>131</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="25"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="2:12" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="25"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -1293,13 +1458,13 @@
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="2:12" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="26"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -1310,121 +1475,121 @@
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="2:12" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="21" t="s">
-        <v>59</v>
+      <c r="B7" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="H7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="J8" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:12" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="23"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="G10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="I10" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="J10" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1432,7 +1597,7 @@
     <row r="11" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B11" s="13"/>
       <c r="C11" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -1447,7 +1612,7 @@
     <row r="12" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B12" s="14"/>
       <c r="C12" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -1460,88 +1625,88 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="2:12" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="3"/>
       <c r="L13" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="19"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="19"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="4" t="s">
         <v>4</v>
       </c>
@@ -1549,37 +1714,37 @@
         <v>3</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>105</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="4"/>
       <c r="I16" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1589,18 +1754,18 @@
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="19"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -1610,62 +1775,62 @@
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="20" t="s">
-        <v>57</v>
+      <c r="B19" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E19" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="12" t="s">
+      <c r="L19" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="21"/>
+      <c r="C20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="20"/>
-      <c r="C20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="11" t="s">
+      <c r="J20" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1686,452 +1851,485 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J20"/>
+  <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.59765625" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="10" width="15.69921875" customWidth="1"/>
+    <col min="3" max="3" width="16.796875" customWidth="1"/>
+    <col min="4" max="10" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B2" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+    </row>
+    <row r="3" spans="2:10" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B3" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+    </row>
+    <row r="4" spans="2:10" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B4" s="24"/>
+      <c r="C4" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+    </row>
+    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="25"/>
-      <c r="C4" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="25"/>
-      <c r="C5" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="26"/>
       <c r="C6" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+        <v>62</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="21" t="s">
-        <v>59</v>
-      </c>
+      <c r="B7" s="26"/>
       <c r="C7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="27"/>
+      <c r="C8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="H9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="22"/>
-      <c r="C8" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="22"/>
-      <c r="C9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="23"/>
       <c r="C10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="23"/>
+      <c r="C11" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="13"/>
-      <c r="C11" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="14"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+      <c r="D12" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="B13" s="23"/>
       <c r="C13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="19"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>6</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="19" t="s">
-        <v>5</v>
+      <c r="B15" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+        <v>186</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="I15" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>101</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="19"/>
-      <c r="C16" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="19" t="s">
-        <v>7</v>
+      <c r="B17" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="19"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="16" t="s">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+        <v>184</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>90</v>
-      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="20"/>
-      <c r="C20" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>86</v>
-      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="20"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="20"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="21"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="21"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B19:B20"/>
+  <mergeCells count="8">
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="C2:J2"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B17:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2150,10 +2348,10 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
@@ -2161,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
@@ -2169,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
@@ -2241,109 +2439,109 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2372,111 +2570,111 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="30" x14ac:dyDescent="0.65">
-      <c r="B2" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="F2" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="F2" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>110</v>
-      </c>
       <c r="D3" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F3" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>110</v>
-      </c>
       <c r="H3" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="G4" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H4" s="11"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H6" s="11"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>122</v>
       </c>
       <c r="D8" s="11">
         <v>12.26</v>
@@ -2551,12 +2749,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="ServerDB" sheetId="1" r:id="rId1"/>
@@ -988,6 +988,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1015,20 +1024,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1336,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1361,23 +1361,23 @@
       <c r="B2" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1410,7 +1410,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="26"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="16" t="s">
         <v>62</v>
       </c>
@@ -1439,7 +1439,7 @@
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="2:12" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="26"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="6" t="s">
         <v>139</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="2:12" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="27"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="16" t="s">
         <v>62</v>
       </c>
@@ -1475,7 +1475,7 @@
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="2:12" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="25" t="s">
         <v>57</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1508,7 +1508,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="23"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="4" t="s">
         <v>73</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:12" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="23"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="6" t="s">
         <v>67</v>
       </c>
@@ -1566,7 +1566,7 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="24"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="10" t="s">
         <v>68</v>
       </c>
@@ -1625,7 +1625,7 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="2:12" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1654,7 +1654,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="20"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
@@ -1679,7 +1679,7 @@
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1706,7 +1706,7 @@
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="20"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="4" t="s">
         <v>4</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -1754,7 +1754,7 @@
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="20"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="10" t="s">
         <v>4</v>
       </c>
@@ -1775,7 +1775,7 @@
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="24" t="s">
         <v>55</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -1807,7 +1807,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="21"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="11" t="s">
         <v>56</v>
       </c>
@@ -1853,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1866,22 +1866,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="25" t="s">
         <v>178</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1896,13 +1896,13 @@
       <c r="F3" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="2:10" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="B4" s="24"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="18" t="s">
         <v>161</v>
       </c>
@@ -1916,12 +1916,12 @@
         <v>156</v>
       </c>
       <c r="G4" s="18"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1950,7 +1950,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="26"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="16" t="s">
         <v>62</v>
       </c>
@@ -1977,7 +1977,7 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="26"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="6" t="s">
         <v>139</v>
       </c>
@@ -1990,7 +1990,7 @@
       <c r="J7" s="16"/>
     </row>
     <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="27"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="16" t="s">
         <v>62</v>
       </c>
@@ -2003,7 +2003,7 @@
       <c r="J8" s="16"/>
     </row>
     <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="25" t="s">
         <v>177</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2032,7 +2032,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="23"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="16" t="s">
         <v>66</v>
       </c>
@@ -2059,7 +2059,7 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="23"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="6" t="s">
         <v>151</v>
       </c>
@@ -2086,7 +2086,7 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="23"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="16" t="s">
         <v>68</v>
       </c>
@@ -2113,7 +2113,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="23"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="6" t="s">
         <v>102</v>
       </c>
@@ -2126,7 +2126,7 @@
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="24"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="16" t="s">
         <v>66</v>
       </c>
@@ -2139,7 +2139,7 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="25" t="s">
         <v>152</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -2166,7 +2166,7 @@
       <c r="J15" s="18"/>
     </row>
     <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="24"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="18" t="s">
         <v>154</v>
       </c>
@@ -2191,7 +2191,7 @@
       <c r="J16" s="18"/>
     </row>
     <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="25" t="s">
         <v>185</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -2220,7 +2220,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="23"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="16" t="s">
         <v>154</v>
       </c>
@@ -2236,7 +2236,7 @@
       <c r="G18" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="19" t="s">
         <v>159</v>
       </c>
       <c r="I18" s="18" t="s">
@@ -2247,7 +2247,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="23"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="6" t="s">
         <v>168</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="J19" s="18"/>
     </row>
     <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="24"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="18" t="s">
         <v>157</v>
       </c>
@@ -2273,7 +2273,7 @@
       <c r="J20" s="18"/>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="20"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -2284,7 +2284,7 @@
       <c r="J21" s="18"/>
     </row>
     <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="20"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -2295,7 +2295,7 @@
       <c r="J22" s="18"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="21"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -2306,7 +2306,7 @@
       <c r="J23" s="18"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="21"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -2570,16 +2570,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="30" x14ac:dyDescent="0.65">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="F2" s="28" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="F2" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="12" t="s">
